--- a/data/pca/factorExposure/factorExposure_2018-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01725326354289582</v>
+        <v>0.02122495450860544</v>
       </c>
       <c r="C2">
-        <v>-0.026844552123868</v>
+        <v>-0.0174849986317182</v>
       </c>
       <c r="D2">
-        <v>-1.45587991782811e-05</v>
+        <v>-0.0234752061825779</v>
       </c>
       <c r="E2">
-        <v>0.02614477594762256</v>
+        <v>0.01302735812954992</v>
       </c>
       <c r="F2">
-        <v>0.1135675729340954</v>
+        <v>-0.01031428282438052</v>
       </c>
       <c r="G2">
-        <v>-0.07063599751327418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05330783606414359</v>
+      </c>
+      <c r="H2">
+        <v>-0.04605815414099939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09033351846972436</v>
+        <v>0.0850190042616971</v>
       </c>
       <c r="C3">
-        <v>-0.01175168466675428</v>
+        <v>0.0154593777530344</v>
       </c>
       <c r="D3">
-        <v>0.07201355995125067</v>
+        <v>-0.04674282696241074</v>
       </c>
       <c r="E3">
-        <v>0.07229715518375787</v>
+        <v>0.004167958704298901</v>
       </c>
       <c r="F3">
-        <v>0.404298035702297</v>
+        <v>-0.009159461432739375</v>
       </c>
       <c r="G3">
-        <v>-0.2163030907273397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1884257092565572</v>
+      </c>
+      <c r="H3">
+        <v>-0.1417769096059465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04148127389794472</v>
+        <v>0.04824387429008035</v>
       </c>
       <c r="C4">
-        <v>0.001071459810477515</v>
+        <v>-0.002426064703061184</v>
       </c>
       <c r="D4">
-        <v>-0.02762667245944294</v>
+        <v>-0.051320999053259</v>
       </c>
       <c r="E4">
-        <v>-0.03802799346178759</v>
+        <v>-0.02291693211283934</v>
       </c>
       <c r="F4">
-        <v>0.08211273365393323</v>
+        <v>-0.05267328268969865</v>
       </c>
       <c r="G4">
-        <v>-0.04950787671635605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0388781858425046</v>
+      </c>
+      <c r="H4">
+        <v>-0.05500291994216294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02833003852383833</v>
+        <v>0.02937172471316789</v>
       </c>
       <c r="C6">
-        <v>-0.01129942193252249</v>
+        <v>3.756531765217784e-05</v>
       </c>
       <c r="D6">
-        <v>-0.001151608452909332</v>
+        <v>-0.05639559729267325</v>
       </c>
       <c r="E6">
-        <v>-0.02147017303281314</v>
+        <v>-0.005921829798229316</v>
       </c>
       <c r="F6">
-        <v>0.0145965757574513</v>
+        <v>-0.03168659407358298</v>
       </c>
       <c r="G6">
-        <v>0.007453198293771103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01331942256992971</v>
+      </c>
+      <c r="H6">
+        <v>-0.06042896011895303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01990124028826701</v>
+        <v>0.02345857085872636</v>
       </c>
       <c r="C7">
-        <v>-0.007037989595208623</v>
+        <v>-0.001036796530904543</v>
       </c>
       <c r="D7">
-        <v>0.00512180078736277</v>
+        <v>-0.02895294502501656</v>
       </c>
       <c r="E7">
-        <v>-0.02333503522596252</v>
+        <v>-0.04392175973909695</v>
       </c>
       <c r="F7">
-        <v>0.04913645719392749</v>
+        <v>-0.007659598533596134</v>
       </c>
       <c r="G7">
-        <v>-0.0665788464998418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02398880499589126</v>
+      </c>
+      <c r="H7">
+        <v>-0.03795546940292246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01544071517737602</v>
+        <v>0.006487318706405266</v>
       </c>
       <c r="C8">
-        <v>-0.0097423557178182</v>
+        <v>0.002106517025623228</v>
       </c>
       <c r="D8">
-        <v>-0.004451923811368779</v>
+        <v>-0.0106473889947811</v>
       </c>
       <c r="E8">
-        <v>-0.02911701370091718</v>
+        <v>-0.00768598368083975</v>
       </c>
       <c r="F8">
-        <v>0.0960156591937612</v>
+        <v>-0.02126210201221463</v>
       </c>
       <c r="G8">
-        <v>-0.057669268569268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04675763255789945</v>
+      </c>
+      <c r="H8">
+        <v>-0.03877277200333053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03354285505321428</v>
+        <v>0.03819699719276434</v>
       </c>
       <c r="C9">
-        <v>-0.008853694621737247</v>
+        <v>0.0008530316018807759</v>
       </c>
       <c r="D9">
-        <v>-0.01181519818142082</v>
+        <v>-0.03849802257245058</v>
       </c>
       <c r="E9">
-        <v>-0.03065884358884794</v>
+        <v>-0.01123810480572775</v>
       </c>
       <c r="F9">
-        <v>0.09366460342865705</v>
+        <v>-0.02952138996468314</v>
       </c>
       <c r="G9">
-        <v>-0.0552661411951765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04815597947163484</v>
+      </c>
+      <c r="H9">
+        <v>-0.05336530380865906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03687787023796992</v>
+        <v>0.09623031531486644</v>
       </c>
       <c r="C10">
-        <v>0.07988209205264783</v>
+        <v>0.007784733911290056</v>
       </c>
       <c r="D10">
-        <v>-0.03768848182765475</v>
+        <v>0.1701321238486718</v>
       </c>
       <c r="E10">
-        <v>0.1354129217059721</v>
+        <v>0.003745322921222132</v>
       </c>
       <c r="F10">
-        <v>0.04644504260441994</v>
+        <v>0.03256954921120797</v>
       </c>
       <c r="G10">
-        <v>0.005596967142586547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03384635231677293</v>
+      </c>
+      <c r="H10">
+        <v>-0.006217438790222017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03211576208255094</v>
+        <v>0.02514949825583721</v>
       </c>
       <c r="C11">
-        <v>-0.02764489640282691</v>
+        <v>0.01191085225162103</v>
       </c>
       <c r="D11">
-        <v>0.005262998897596754</v>
+        <v>-0.04482808804005398</v>
       </c>
       <c r="E11">
-        <v>-0.02462339744416658</v>
+        <v>-0.0003989575830506185</v>
       </c>
       <c r="F11">
-        <v>0.04518741788086401</v>
+        <v>-0.01443603502065626</v>
       </c>
       <c r="G11">
-        <v>-0.024203194148434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02876541815678871</v>
+      </c>
+      <c r="H11">
+        <v>-0.04955927903950742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03976729390453532</v>
+        <v>0.02912136136874264</v>
       </c>
       <c r="C12">
-        <v>-0.02662458032015467</v>
+        <v>0.008367045073166423</v>
       </c>
       <c r="D12">
-        <v>-0.003078777114541123</v>
+        <v>-0.04356400982730874</v>
       </c>
       <c r="E12">
-        <v>-0.03441603767173331</v>
+        <v>-0.009322826784657713</v>
       </c>
       <c r="F12">
-        <v>0.02730208190940462</v>
+        <v>-0.01678077629817079</v>
       </c>
       <c r="G12">
-        <v>-0.01056323303725891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.009423234005430622</v>
+      </c>
+      <c r="H12">
+        <v>-0.02381421612308022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01461537142568429</v>
+        <v>0.03043683340946613</v>
       </c>
       <c r="C13">
-        <v>-0.01905925768243612</v>
+        <v>-0.01235451717434661</v>
       </c>
       <c r="D13">
-        <v>-0.01230458690386664</v>
+        <v>-0.01418271564107268</v>
       </c>
       <c r="E13">
-        <v>0.01198853038491663</v>
+        <v>0.008441244416975906</v>
       </c>
       <c r="F13">
-        <v>0.08074133459344326</v>
+        <v>-0.02824383764631724</v>
       </c>
       <c r="G13">
-        <v>-0.04569265582800833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06379652491481429</v>
+      </c>
+      <c r="H13">
+        <v>-0.07071435085647944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01518165815598516</v>
+        <v>0.01876004664102432</v>
       </c>
       <c r="C14">
-        <v>0.0008738892469623599</v>
+        <v>-0.0002083999297288646</v>
       </c>
       <c r="D14">
-        <v>-0.0122040568617334</v>
+        <v>-0.009889897626795237</v>
       </c>
       <c r="E14">
-        <v>-0.02584666297721453</v>
+        <v>-0.01493567832016351</v>
       </c>
       <c r="F14">
-        <v>0.06057377530194292</v>
+        <v>-0.01931261842597874</v>
       </c>
       <c r="G14">
-        <v>-0.05660421477828716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04168834486012499</v>
+      </c>
+      <c r="H14">
+        <v>-0.009928115384780389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02680629482841589</v>
+        <v>0.0254443958697555</v>
       </c>
       <c r="C16">
-        <v>-0.02955659753524037</v>
+        <v>0.01131437495023247</v>
       </c>
       <c r="D16">
-        <v>0.001337580879189504</v>
+        <v>-0.03701314021176091</v>
       </c>
       <c r="E16">
-        <v>-0.02142343137020586</v>
+        <v>-0.003947037715865732</v>
       </c>
       <c r="F16">
-        <v>0.0494703565563214</v>
+        <v>-0.01832016978084303</v>
       </c>
       <c r="G16">
-        <v>-0.02437953629907296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02523479395877246</v>
+      </c>
+      <c r="H16">
+        <v>-0.03821086702652558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03278151140953117</v>
+        <v>0.03693060545739638</v>
       </c>
       <c r="C19">
-        <v>-0.02460539418349639</v>
+        <v>0.001468930726402167</v>
       </c>
       <c r="D19">
-        <v>-0.0002606656241939433</v>
+        <v>-0.02990035600615402</v>
       </c>
       <c r="E19">
-        <v>-0.01649178733732316</v>
+        <v>-0.006526225852840855</v>
       </c>
       <c r="F19">
-        <v>0.1034648604522764</v>
+        <v>-0.03196348785522898</v>
       </c>
       <c r="G19">
-        <v>-0.07296378066184241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0627021889969698</v>
+      </c>
+      <c r="H19">
+        <v>-0.06305106885993382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002457354059111487</v>
+        <v>0.01330563390452048</v>
       </c>
       <c r="C20">
-        <v>-0.005027586550608987</v>
+        <v>-0.004393563408855121</v>
       </c>
       <c r="D20">
-        <v>-0.007522294116215588</v>
+        <v>-0.01822253846206838</v>
       </c>
       <c r="E20">
-        <v>-0.01805831218904044</v>
+        <v>-0.007010620193732048</v>
       </c>
       <c r="F20">
-        <v>0.07650636201459274</v>
+        <v>-0.021240168023046</v>
       </c>
       <c r="G20">
-        <v>-0.07821482950731375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05463800615563216</v>
+      </c>
+      <c r="H20">
+        <v>-0.02688057408945277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001232866191715774</v>
+        <v>0.01785342722041734</v>
       </c>
       <c r="C21">
-        <v>0.0150712282616472</v>
+        <v>-0.006240311968081308</v>
       </c>
       <c r="D21">
-        <v>0.008969686385200119</v>
+        <v>-0.01710006411619988</v>
       </c>
       <c r="E21">
-        <v>-0.03584454096370637</v>
+        <v>-0.02021815958751595</v>
       </c>
       <c r="F21">
-        <v>0.04240251295482211</v>
+        <v>-0.01608428747023627</v>
       </c>
       <c r="G21">
-        <v>-0.02006448016271071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0488762815445045</v>
+      </c>
+      <c r="H21">
+        <v>-0.04101062786051783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02819862402865403</v>
+        <v>0.02148698359221222</v>
       </c>
       <c r="C24">
-        <v>-0.02448206145466614</v>
+        <v>0.005610867899992654</v>
       </c>
       <c r="D24">
-        <v>-0.005566387865637773</v>
+        <v>-0.03921173325957576</v>
       </c>
       <c r="E24">
-        <v>-0.00740292721355696</v>
+        <v>-0.002310175592362669</v>
       </c>
       <c r="F24">
-        <v>0.04564943681992536</v>
+        <v>-0.012944871560092</v>
       </c>
       <c r="G24">
-        <v>-0.02309535711778454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02077014283581504</v>
+      </c>
+      <c r="H24">
+        <v>-0.04706133314344477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02950371253155929</v>
+        <v>0.03304283428606115</v>
       </c>
       <c r="C25">
-        <v>-0.01997561710505208</v>
+        <v>0.003635732456412925</v>
       </c>
       <c r="D25">
-        <v>0.008681489805389579</v>
+        <v>-0.03946007726346154</v>
       </c>
       <c r="E25">
-        <v>-0.02643130790986792</v>
+        <v>-0.006107062099675504</v>
       </c>
       <c r="F25">
-        <v>0.05614856378975619</v>
+        <v>-0.02081864364783875</v>
       </c>
       <c r="G25">
-        <v>-0.01140727760804942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02572294393625833</v>
+      </c>
+      <c r="H25">
+        <v>-0.04571491140981963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02028953869935071</v>
+        <v>0.01780089590297066</v>
       </c>
       <c r="C26">
-        <v>-0.0162224410565083</v>
+        <v>-0.01817740047756199</v>
       </c>
       <c r="D26">
-        <v>0.02080210372273995</v>
+        <v>-0.006784326426915917</v>
       </c>
       <c r="E26">
-        <v>-0.00448927697118391</v>
+        <v>-0.0002690122107388603</v>
       </c>
       <c r="F26">
-        <v>0.06297605696384334</v>
+        <v>-0.003767261053300297</v>
       </c>
       <c r="G26">
-        <v>-0.04844967048901576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03441980620354906</v>
+      </c>
+      <c r="H26">
+        <v>-0.0243413721621226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05298457686902863</v>
+        <v>0.02209070732207283</v>
       </c>
       <c r="C27">
-        <v>-0.01878801448415492</v>
+        <v>0.008244265012912848</v>
       </c>
       <c r="D27">
-        <v>-0.03641140291088806</v>
+        <v>-0.01237425790109101</v>
       </c>
       <c r="E27">
-        <v>-0.02568155731777036</v>
+        <v>-0.003258919168171461</v>
       </c>
       <c r="F27">
-        <v>0.0430448852884196</v>
+        <v>-0.01488580558334775</v>
       </c>
       <c r="G27">
-        <v>-0.05463114545655505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.008301573467773134</v>
+      </c>
+      <c r="H27">
+        <v>0.003339054825428605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05940875198289418</v>
+        <v>0.1426086179770698</v>
       </c>
       <c r="C28">
-        <v>0.1080461161739125</v>
+        <v>0.0005142751696201566</v>
       </c>
       <c r="D28">
-        <v>-0.05628025337602168</v>
+        <v>0.2287542316415579</v>
       </c>
       <c r="E28">
-        <v>0.1686353872363764</v>
+        <v>-0.001910142134961596</v>
       </c>
       <c r="F28">
-        <v>0.04471125348487415</v>
+        <v>0.02970417695570523</v>
       </c>
       <c r="G28">
-        <v>0.004077815442566021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02103821832903013</v>
+      </c>
+      <c r="H28">
+        <v>0.006104699060791452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02006526800235541</v>
+        <v>0.02246700274176695</v>
       </c>
       <c r="C29">
-        <v>0.0002761793651944256</v>
+        <v>0.001242094445458391</v>
       </c>
       <c r="D29">
-        <v>-0.01399390851183645</v>
+        <v>-0.009711952226033492</v>
       </c>
       <c r="E29">
-        <v>-0.03387075728953684</v>
+        <v>-0.01540511061426079</v>
       </c>
       <c r="F29">
-        <v>0.05804759232448131</v>
+        <v>-0.02022947909359003</v>
       </c>
       <c r="G29">
-        <v>-0.04624167218400953</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03926989731571811</v>
+      </c>
+      <c r="H29">
+        <v>-0.0009882984021946754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08067308724528827</v>
+        <v>0.05861732708753101</v>
       </c>
       <c r="C30">
-        <v>-0.05340614092075603</v>
+        <v>0.001120857752700087</v>
       </c>
       <c r="D30">
-        <v>-0.0249082319855644</v>
+        <v>-0.08469994651715859</v>
       </c>
       <c r="E30">
-        <v>-0.0444223029427592</v>
+        <v>0.02790846652037941</v>
       </c>
       <c r="F30">
-        <v>0.1009381190238224</v>
+        <v>-0.05533582244489299</v>
       </c>
       <c r="G30">
-        <v>-0.06811903836646253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0633107207284548</v>
+      </c>
+      <c r="H30">
+        <v>-0.0781354866070204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05911571770947693</v>
+        <v>0.05223615361574689</v>
       </c>
       <c r="C31">
-        <v>-0.03068889003674952</v>
+        <v>0.01210934521185961</v>
       </c>
       <c r="D31">
-        <v>0.003714668241454725</v>
+        <v>-0.01982286633020878</v>
       </c>
       <c r="E31">
-        <v>-0.01117814597552181</v>
+        <v>0.003561200994298319</v>
       </c>
       <c r="F31">
-        <v>0.04812929140438025</v>
+        <v>-0.007250856599123078</v>
       </c>
       <c r="G31">
-        <v>-0.0523834962450961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01659238447993943</v>
+      </c>
+      <c r="H31">
+        <v>-0.006002669042945307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01561505881863148</v>
+        <v>0.011033769465548</v>
       </c>
       <c r="C32">
-        <v>-0.01120627698805121</v>
+        <v>0.01350459800894969</v>
       </c>
       <c r="D32">
-        <v>-0.0005054610330846034</v>
+        <v>-0.008397946319182701</v>
       </c>
       <c r="E32">
-        <v>-0.07018190280477092</v>
+        <v>-0.03136747357702867</v>
       </c>
       <c r="F32">
-        <v>0.07185945042339344</v>
+        <v>-0.04240312564517336</v>
       </c>
       <c r="G32">
-        <v>-0.04780755687886079</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0277443652452996</v>
+      </c>
+      <c r="H32">
+        <v>-0.05589880002753543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04233356119070771</v>
+        <v>0.03972292905386689</v>
       </c>
       <c r="C33">
-        <v>-0.03662175719674968</v>
+        <v>0.002452648700980752</v>
       </c>
       <c r="D33">
-        <v>0.02715803041547034</v>
+        <v>-0.03543563548747425</v>
       </c>
       <c r="E33">
-        <v>-0.02666044455446206</v>
+        <v>0.01964429368043894</v>
       </c>
       <c r="F33">
-        <v>0.08367856241218481</v>
+        <v>-0.005527256795847654</v>
       </c>
       <c r="G33">
-        <v>-0.06787222505325191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05169581207798974</v>
+      </c>
+      <c r="H33">
+        <v>-0.05168621805465771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02796860418622063</v>
+        <v>0.02947339813442861</v>
       </c>
       <c r="C34">
-        <v>-0.02446239216995269</v>
+        <v>0.01920953910194792</v>
       </c>
       <c r="D34">
-        <v>-0.0001654824521439577</v>
+        <v>-0.03638954276520548</v>
       </c>
       <c r="E34">
-        <v>-0.0290080877471974</v>
+        <v>-0.01158851369236687</v>
       </c>
       <c r="F34">
-        <v>0.05465006713138682</v>
+        <v>-0.01860379666723206</v>
       </c>
       <c r="G34">
-        <v>-0.01676228929893697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0210335235927642</v>
+      </c>
+      <c r="H34">
+        <v>-0.03852225089932979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01498916682874793</v>
+        <v>0.01865868086465501</v>
       </c>
       <c r="C36">
-        <v>-0.0009131573535863364</v>
+        <v>-0.005577882347509193</v>
       </c>
       <c r="D36">
-        <v>-0.0007356663336802442</v>
+        <v>-0.002201071398612415</v>
       </c>
       <c r="E36">
-        <v>-0.02215460668073825</v>
+        <v>-0.008459594495862933</v>
       </c>
       <c r="F36">
-        <v>0.03709451277461348</v>
+        <v>-0.004925014375926907</v>
       </c>
       <c r="G36">
-        <v>-0.03605377110200049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02183029956123775</v>
+      </c>
+      <c r="H36">
+        <v>-0.01609720401895455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002090112961045339</v>
+        <v>0.02833883728928556</v>
       </c>
       <c r="C38">
-        <v>0.005713095910667422</v>
+        <v>0.01724362279230566</v>
       </c>
       <c r="D38">
-        <v>0.02046960935626607</v>
+        <v>-0.01015938591532448</v>
       </c>
       <c r="E38">
-        <v>0.02698707950940667</v>
+        <v>-0.001033814417772755</v>
       </c>
       <c r="F38">
-        <v>0.03765435920950327</v>
+        <v>-0.0131464880103671</v>
       </c>
       <c r="G38">
-        <v>-0.01361068731190748</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02577675312398389</v>
+      </c>
+      <c r="H38">
+        <v>-0.04642744309127912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0293277274240269</v>
+        <v>0.02323531601187543</v>
       </c>
       <c r="C39">
-        <v>-0.04543019882218708</v>
+        <v>0.008232109823771939</v>
       </c>
       <c r="D39">
-        <v>0.002914888265247011</v>
+        <v>-0.08576356526250203</v>
       </c>
       <c r="E39">
-        <v>-0.02678605534699725</v>
+        <v>0.002085672892835425</v>
       </c>
       <c r="F39">
-        <v>0.06673390067340515</v>
+        <v>-0.02420597234903381</v>
       </c>
       <c r="G39">
-        <v>-0.03257220344672504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04315632605019098</v>
+      </c>
+      <c r="H39">
+        <v>-0.0757803545717749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0322303542212369</v>
+        <v>0.03280164814219644</v>
       </c>
       <c r="C40">
-        <v>-0.0664910446826097</v>
+        <v>0.002323135243930646</v>
       </c>
       <c r="D40">
-        <v>-0.02408804089424778</v>
+        <v>-0.0276957841899685</v>
       </c>
       <c r="E40">
-        <v>0.01664770069583093</v>
+        <v>0.02214490743366954</v>
       </c>
       <c r="F40">
-        <v>0.08312662987287141</v>
+        <v>-0.03780133948302365</v>
       </c>
       <c r="G40">
-        <v>-0.05676631118673447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02278903459284663</v>
+      </c>
+      <c r="H40">
+        <v>-0.0663168450536611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001386379074753103</v>
+        <v>0.0100487455810512</v>
       </c>
       <c r="C41">
-        <v>0.002040726555462058</v>
+        <v>-0.002658602413684939</v>
       </c>
       <c r="D41">
-        <v>0.008277166358791737</v>
+        <v>0.01521395852148678</v>
       </c>
       <c r="E41">
-        <v>-0.003496815781138687</v>
+        <v>0.0011896230029695</v>
       </c>
       <c r="F41">
-        <v>0.01625104778287114</v>
+        <v>0.002695210320919658</v>
       </c>
       <c r="G41">
-        <v>-0.04765390944784887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005526879518312328</v>
+      </c>
+      <c r="H41">
+        <v>0.005327948409292666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3650138084851353</v>
+        <v>0.1904275438553697</v>
       </c>
       <c r="C42">
-        <v>0.0856050477838583</v>
+        <v>-0.06079868963942291</v>
       </c>
       <c r="D42">
-        <v>0.8285223173903954</v>
+        <v>-0.2518633761842907</v>
       </c>
       <c r="E42">
-        <v>0.1771693443875042</v>
+        <v>0.2001519625763231</v>
       </c>
       <c r="F42">
-        <v>-0.2876639039010538</v>
+        <v>0.9110325140009971</v>
       </c>
       <c r="G42">
-        <v>-0.1480044655923179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08527656034672172</v>
+      </c>
+      <c r="H42">
+        <v>-0.003326399971968748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0005277269117952599</v>
+        <v>0.01386802508379215</v>
       </c>
       <c r="C43">
-        <v>0.002652683918659481</v>
+        <v>-0.002642217419337533</v>
       </c>
       <c r="D43">
-        <v>0.01147482356739137</v>
+        <v>0.01552555957559134</v>
       </c>
       <c r="E43">
-        <v>-0.004008518356065436</v>
+        <v>0.004473949300361452</v>
       </c>
       <c r="F43">
-        <v>0.03165615457149058</v>
+        <v>0.005035056119754126</v>
       </c>
       <c r="G43">
-        <v>-0.04629242595938256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007256322549060314</v>
+      </c>
+      <c r="H43">
+        <v>-0.00827993290708696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01529300137154521</v>
+        <v>0.02131984257347969</v>
       </c>
       <c r="C44">
-        <v>-0.00118583879491866</v>
+        <v>0.005407708899524204</v>
       </c>
       <c r="D44">
-        <v>0.01227347413324256</v>
+        <v>-0.0298978497537024</v>
       </c>
       <c r="E44">
-        <v>0.004222707259096789</v>
+        <v>-0.008382608913816713</v>
       </c>
       <c r="F44">
-        <v>0.107675487188494</v>
+        <v>-0.005917883473775095</v>
       </c>
       <c r="G44">
-        <v>-0.08631506296884761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04789348659454811</v>
+      </c>
+      <c r="H44">
+        <v>-0.06602618605858197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02123244219192038</v>
+        <v>0.01640535109599802</v>
       </c>
       <c r="C46">
-        <v>-0.01862096308332972</v>
+        <v>-0.004508087066574803</v>
       </c>
       <c r="D46">
-        <v>0.005807597193237562</v>
+        <v>-0.01161348917459472</v>
       </c>
       <c r="E46">
-        <v>-0.03603354907291295</v>
+        <v>-0.000879010298483017</v>
       </c>
       <c r="F46">
-        <v>0.07138668165998109</v>
+        <v>-0.01569270532436821</v>
       </c>
       <c r="G46">
-        <v>-0.06006526742492067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.045463518058779</v>
+      </c>
+      <c r="H46">
+        <v>-0.005953396375441882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09439335175918155</v>
+        <v>0.07686649156164352</v>
       </c>
       <c r="C47">
-        <v>-0.03298653935592488</v>
+        <v>0.0293743730650903</v>
       </c>
       <c r="D47">
-        <v>-0.01456001014310078</v>
+        <v>-0.04301372858372569</v>
       </c>
       <c r="E47">
-        <v>-0.02430915412240318</v>
+        <v>-0.0003870610397353459</v>
       </c>
       <c r="F47">
-        <v>0.0323254431530602</v>
+        <v>-0.01559465045217002</v>
       </c>
       <c r="G47">
-        <v>-0.08069826591234641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01144120328111493</v>
+      </c>
+      <c r="H47">
+        <v>0.01907197541275174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01746336560119931</v>
+        <v>0.02128621740584951</v>
       </c>
       <c r="C48">
-        <v>-0.008974400554912425</v>
+        <v>0.005596288951842564</v>
       </c>
       <c r="D48">
-        <v>0.004467940185255802</v>
+        <v>-0.007886727083076257</v>
       </c>
       <c r="E48">
-        <v>-0.02360037029145147</v>
+        <v>-0.0009851912561872737</v>
       </c>
       <c r="F48">
-        <v>0.04322231359039329</v>
+        <v>-0.009709090902316588</v>
       </c>
       <c r="G48">
-        <v>-0.02878907166782492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02570105270845929</v>
+      </c>
+      <c r="H48">
+        <v>-0.0189493337730831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08483691621886143</v>
+        <v>0.07372680853542049</v>
       </c>
       <c r="C50">
-        <v>-0.03093728232599559</v>
+        <v>0.02626008455210083</v>
       </c>
       <c r="D50">
-        <v>0.006784619299368752</v>
+        <v>-0.04199176985694198</v>
       </c>
       <c r="E50">
-        <v>-0.03575014182089076</v>
+        <v>-0.0151723288641694</v>
       </c>
       <c r="F50">
-        <v>0.04941984117727422</v>
+        <v>-0.01142870742093763</v>
       </c>
       <c r="G50">
-        <v>-0.04086021714707152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.007536912568672996</v>
+      </c>
+      <c r="H50">
+        <v>0.002938864893909307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01433385762354792</v>
+        <v>0.0203166391648949</v>
       </c>
       <c r="C51">
-        <v>0.008355257057152931</v>
+        <v>-0.0009004151394986373</v>
       </c>
       <c r="D51">
-        <v>-0.0008801497350856033</v>
+        <v>-0.001268244506105556</v>
       </c>
       <c r="E51">
-        <v>0.01830225116226731</v>
+        <v>-0.00619327174607147</v>
       </c>
       <c r="F51">
-        <v>0.08947558707198457</v>
+        <v>-0.005133483300650742</v>
       </c>
       <c r="G51">
-        <v>-0.06017663506300712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0471243002471322</v>
+      </c>
+      <c r="H51">
+        <v>-0.04440557142728423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1029162348846613</v>
+        <v>0.09501124241388732</v>
       </c>
       <c r="C53">
-        <v>-0.04432252734071016</v>
+        <v>0.03739360132584806</v>
       </c>
       <c r="D53">
-        <v>-0.01780057975141697</v>
+        <v>-0.07605480286695521</v>
       </c>
       <c r="E53">
-        <v>-0.04581419565490419</v>
+        <v>-0.002732127483649075</v>
       </c>
       <c r="F53">
-        <v>-0.02563505856379072</v>
+        <v>-0.03001350705132928</v>
       </c>
       <c r="G53">
-        <v>-0.01689452110694625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04639232128727413</v>
+      </c>
+      <c r="H53">
+        <v>0.0292024559983882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02191093083251045</v>
+        <v>0.025139245223342</v>
       </c>
       <c r="C54">
-        <v>0.0008603376746974726</v>
+        <v>0.008867051287606112</v>
       </c>
       <c r="D54">
-        <v>-0.01973788509830368</v>
+        <v>0.01076934696180444</v>
       </c>
       <c r="E54">
-        <v>-0.0322252564516459</v>
+        <v>-0.009383223161416021</v>
       </c>
       <c r="F54">
-        <v>0.05282277906042537</v>
+        <v>-0.01245658097287244</v>
       </c>
       <c r="G54">
-        <v>-0.05885372311381971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04117508451301664</v>
+      </c>
+      <c r="H54">
+        <v>0.003584076464407655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1015006013872745</v>
+        <v>0.07923373552971431</v>
       </c>
       <c r="C55">
-        <v>-0.02488554761041796</v>
+        <v>0.03300195521605654</v>
       </c>
       <c r="D55">
-        <v>-0.01373799818255737</v>
+        <v>-0.07193853463746355</v>
       </c>
       <c r="E55">
-        <v>-0.06437530633946319</v>
+        <v>-0.01146438373425336</v>
       </c>
       <c r="F55">
-        <v>-0.01717788771412794</v>
+        <v>-0.0220403147992648</v>
       </c>
       <c r="G55">
-        <v>-0.05720570058986112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02106028481072034</v>
+      </c>
+      <c r="H55">
+        <v>0.04087177434728698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1439797325010939</v>
+        <v>0.1285751234799369</v>
       </c>
       <c r="C56">
-        <v>-0.06123042683006963</v>
+        <v>0.05539700652040538</v>
       </c>
       <c r="D56">
-        <v>-0.05987413254176163</v>
+        <v>-0.09178102425764539</v>
       </c>
       <c r="E56">
-        <v>-0.06199949936274171</v>
+        <v>-0.0008189058301620692</v>
       </c>
       <c r="F56">
-        <v>-0.05965923639596552</v>
+        <v>-0.05044289109493769</v>
       </c>
       <c r="G56">
-        <v>0.03166772281159792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.08387069335923704</v>
+      </c>
+      <c r="H56">
+        <v>0.04947875320651696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04474063682141878</v>
+        <v>0.03683033937750869</v>
       </c>
       <c r="C57">
-        <v>-0.01597524086737853</v>
+        <v>-0.01151591354246208</v>
       </c>
       <c r="D57">
-        <v>0.01607446886971401</v>
+        <v>-0.03178748262271019</v>
       </c>
       <c r="E57">
-        <v>0.01408245928593476</v>
+        <v>0.006274651104049692</v>
       </c>
       <c r="F57">
-        <v>0.05503091751358422</v>
+        <v>-0.01250105519006252</v>
       </c>
       <c r="G57">
-        <v>-0.05778202883363448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07372692932703891</v>
+      </c>
+      <c r="H57">
+        <v>-0.05179376258659586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2050049342197741</v>
+        <v>0.1565435359221138</v>
       </c>
       <c r="C58">
-        <v>-0.1305001590899053</v>
+        <v>0.0519253748228241</v>
       </c>
       <c r="D58">
-        <v>0.06053693757427947</v>
+        <v>-0.1531830720102154</v>
       </c>
       <c r="E58">
-        <v>-0.09287092657593675</v>
+        <v>0.1706965774324346</v>
       </c>
       <c r="F58">
-        <v>0.4072250434348128</v>
+        <v>-0.02209377504969202</v>
       </c>
       <c r="G58">
-        <v>-0.06511355975260136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7961737151634551</v>
+      </c>
+      <c r="H58">
+        <v>0.4356154948255046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05385354568442394</v>
+        <v>0.1562565702758247</v>
       </c>
       <c r="C59">
-        <v>0.05819244264634824</v>
+        <v>0.009736580654988062</v>
       </c>
       <c r="D59">
-        <v>-0.07303271480208157</v>
+        <v>0.2287724368692528</v>
       </c>
       <c r="E59">
-        <v>0.1675515506988823</v>
+        <v>0.01697394311822648</v>
       </c>
       <c r="F59">
-        <v>0.06282327229890325</v>
+        <v>0.004242345824401601</v>
       </c>
       <c r="G59">
-        <v>0.02423291694852692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02478982947443679</v>
+      </c>
+      <c r="H59">
+        <v>-0.03156039667453417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1524344064494413</v>
+        <v>0.1841888394514582</v>
       </c>
       <c r="C60">
-        <v>-0.09517140406264028</v>
+        <v>0.03102523353698776</v>
       </c>
       <c r="D60">
-        <v>0.03589508795840474</v>
+        <v>-0.02369406485051733</v>
       </c>
       <c r="E60">
-        <v>0.09915455472262992</v>
+        <v>0.04717413240910864</v>
       </c>
       <c r="F60">
-        <v>0.1790176487428197</v>
+        <v>-0.05504647571557718</v>
       </c>
       <c r="G60">
-        <v>0.2925264492787858</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04211230358557247</v>
+      </c>
+      <c r="H60">
+        <v>-0.365395846915762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02058126761203664</v>
+        <v>0.02689685004606575</v>
       </c>
       <c r="C61">
-        <v>-0.02431440925795797</v>
+        <v>0.01119813941409174</v>
       </c>
       <c r="D61">
-        <v>0.005742096929719839</v>
+        <v>-0.05231258380465023</v>
       </c>
       <c r="E61">
-        <v>-0.01852485749139007</v>
+        <v>-0.005125974651665918</v>
       </c>
       <c r="F61">
-        <v>0.03064276093920097</v>
+        <v>-0.02484360209895081</v>
       </c>
       <c r="G61">
-        <v>-0.01630081173592751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0240026984343578</v>
+      </c>
+      <c r="H61">
+        <v>-0.05679299963565047</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009826238608584784</v>
+        <v>0.01329353166086778</v>
       </c>
       <c r="C63">
-        <v>-0.01540241424341332</v>
+        <v>-0.001592937146106191</v>
       </c>
       <c r="D63">
-        <v>0.0123974623358026</v>
+        <v>-0.01916880447462002</v>
       </c>
       <c r="E63">
-        <v>-0.02778018154097008</v>
+        <v>-0.005852091831997608</v>
       </c>
       <c r="F63">
-        <v>0.01494682109787185</v>
+        <v>-0.01240821297374041</v>
       </c>
       <c r="G63">
-        <v>-0.07255359024524007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01780082330585889</v>
+      </c>
+      <c r="H63">
+        <v>-0.01245809200071302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03657348310959973</v>
+        <v>0.0423947498683365</v>
       </c>
       <c r="C64">
-        <v>0.001221177219041679</v>
+        <v>0.01083170956567396</v>
       </c>
       <c r="D64">
-        <v>-0.01439087850969182</v>
+        <v>-0.03457015592535464</v>
       </c>
       <c r="E64">
-        <v>-0.05014259267021196</v>
+        <v>-0.01246697884091789</v>
       </c>
       <c r="F64">
-        <v>0.0386670921665568</v>
+        <v>-0.006063204046419878</v>
       </c>
       <c r="G64">
-        <v>-0.05522432181198772</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005651730421461856</v>
+      </c>
+      <c r="H64">
+        <v>-0.04154525345243972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03106980659920514</v>
+        <v>0.03797471549325551</v>
       </c>
       <c r="C65">
-        <v>-0.01310668456558073</v>
+        <v>0.00136175936358148</v>
       </c>
       <c r="D65">
-        <v>-0.0009277501873909307</v>
+        <v>-0.06581427721787048</v>
       </c>
       <c r="E65">
-        <v>-0.02376470751409934</v>
+        <v>-0.008985839143393931</v>
       </c>
       <c r="F65">
-        <v>0.01002288005819506</v>
+        <v>-0.0361834613597129</v>
       </c>
       <c r="G65">
-        <v>0.01404320838245898</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001786024555705238</v>
+      </c>
+      <c r="H65">
+        <v>-0.06986391443995575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03253295791044372</v>
+        <v>0.03266381634283581</v>
       </c>
       <c r="C66">
-        <v>-0.05736115576998238</v>
+        <v>0.01510254783351179</v>
       </c>
       <c r="D66">
-        <v>-0.0007215178030961944</v>
+        <v>-0.1046708831849794</v>
       </c>
       <c r="E66">
-        <v>-0.03517822017631551</v>
+        <v>0.003958568183059532</v>
       </c>
       <c r="F66">
-        <v>0.05258192298126795</v>
+        <v>-0.04387020575052544</v>
       </c>
       <c r="G66">
-        <v>-0.01423708453683786</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03794638086577509</v>
+      </c>
+      <c r="H66">
+        <v>-0.08150828107375799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01253724335356098</v>
+        <v>0.04789963841822256</v>
       </c>
       <c r="C67">
-        <v>-0.002375881228242056</v>
+        <v>0.01951401295371729</v>
       </c>
       <c r="D67">
-        <v>0.01455523977887235</v>
+        <v>-0.01078861978078917</v>
       </c>
       <c r="E67">
-        <v>0.03251789793294024</v>
+        <v>0.00291837835573964</v>
       </c>
       <c r="F67">
-        <v>0.01981077743404676</v>
+        <v>-0.02141396642997125</v>
       </c>
       <c r="G67">
-        <v>-0.002485337104812636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0129814130396229</v>
+      </c>
+      <c r="H67">
+        <v>-0.04809616426741692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07075335079907345</v>
+        <v>0.148477898814665</v>
       </c>
       <c r="C68">
-        <v>0.08457566669917596</v>
+        <v>-0.01374401438773658</v>
       </c>
       <c r="D68">
-        <v>-0.07919435725942681</v>
+        <v>0.2389874667626627</v>
       </c>
       <c r="E68">
-        <v>0.1663251580379758</v>
+        <v>0.01236498848546204</v>
       </c>
       <c r="F68">
-        <v>0.05726222473967897</v>
+        <v>0.03736255533216764</v>
       </c>
       <c r="G68">
-        <v>0.06663561430580384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03021663661569208</v>
+      </c>
+      <c r="H68">
+        <v>0.04598199953496919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06893218292341312</v>
+        <v>0.06271967349857925</v>
       </c>
       <c r="C69">
-        <v>-0.04075245355558614</v>
+        <v>0.02938474565175537</v>
       </c>
       <c r="D69">
-        <v>-0.02145491788505239</v>
+        <v>-0.04111297794778818</v>
       </c>
       <c r="E69">
-        <v>-0.01133226106106061</v>
+        <v>0.0001120915769115456</v>
       </c>
       <c r="F69">
-        <v>0.01607493019699815</v>
+        <v>-0.02607008884537114</v>
       </c>
       <c r="G69">
-        <v>-0.07882074200691683</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01642275494364749</v>
+      </c>
+      <c r="H69">
+        <v>-0.009184655596331774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07307564758664495</v>
+        <v>0.1413214705553477</v>
       </c>
       <c r="C71">
-        <v>0.08865390500909982</v>
+        <v>-0.002278419421649173</v>
       </c>
       <c r="D71">
-        <v>-0.05613786673452117</v>
+        <v>0.2072482866233987</v>
       </c>
       <c r="E71">
-        <v>0.2237461548046294</v>
+        <v>0.01728575446104722</v>
       </c>
       <c r="F71">
-        <v>0.04779242116590937</v>
+        <v>0.04483283944744869</v>
       </c>
       <c r="G71">
-        <v>-0.001949212070920327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03409887584694626</v>
+      </c>
+      <c r="H71">
+        <v>0.02162253691068878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1066899100438295</v>
+        <v>0.08017395081284023</v>
       </c>
       <c r="C72">
-        <v>-0.07394048309909147</v>
+        <v>0.03971702551485104</v>
       </c>
       <c r="D72">
-        <v>-0.05900126039301686</v>
+        <v>-0.07156856359035781</v>
       </c>
       <c r="E72">
-        <v>-0.01456161047082014</v>
+        <v>0.01419528876127877</v>
       </c>
       <c r="F72">
-        <v>0.0954447722399238</v>
+        <v>-0.07625423663519044</v>
       </c>
       <c r="G72">
-        <v>0.08070994002105851</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02529822918928078</v>
+      </c>
+      <c r="H72">
+        <v>-0.1312330420970012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2246613205162219</v>
+        <v>0.2530569561017232</v>
       </c>
       <c r="C73">
-        <v>-0.1331937199022776</v>
+        <v>0.04531936633162463</v>
       </c>
       <c r="D73">
-        <v>0.05385994343116554</v>
+        <v>-0.08267141397396457</v>
       </c>
       <c r="E73">
-        <v>0.1885779083016681</v>
+        <v>0.08379479202802813</v>
       </c>
       <c r="F73">
-        <v>0.2185036757707815</v>
+        <v>-0.06497922407255192</v>
       </c>
       <c r="G73">
-        <v>0.4216060175920424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.0564175974719402</v>
+      </c>
+      <c r="H73">
+        <v>-0.4752075386479837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1375539261919476</v>
+        <v>0.1233220898695742</v>
       </c>
       <c r="C74">
-        <v>-0.03453870151153854</v>
+        <v>0.0540837472095603</v>
       </c>
       <c r="D74">
-        <v>-0.02897069785042253</v>
+        <v>-0.09922448430933081</v>
       </c>
       <c r="E74">
-        <v>-0.03641349848864169</v>
+        <v>-0.004779471674563092</v>
       </c>
       <c r="F74">
-        <v>-0.07392020684016365</v>
+        <v>-0.0343330962954581</v>
       </c>
       <c r="G74">
-        <v>0.01113717048848587</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06721035188387812</v>
+      </c>
+      <c r="H74">
+        <v>0.01737683866845101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2278002571808828</v>
+        <v>0.2336522955329221</v>
       </c>
       <c r="C75">
-        <v>-0.09885345741280073</v>
+        <v>0.1012175594695368</v>
       </c>
       <c r="D75">
-        <v>-0.1071237541815426</v>
+        <v>-0.150779189212295</v>
       </c>
       <c r="E75">
-        <v>-0.08898282808181117</v>
+        <v>0.01303938049079521</v>
       </c>
       <c r="F75">
-        <v>-0.07932090756252771</v>
+        <v>-0.09682767263245065</v>
       </c>
       <c r="G75">
-        <v>0.002365167189566551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1444456052147945</v>
+      </c>
+      <c r="H75">
+        <v>0.1164888860433681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2744490561469213</v>
+        <v>0.2050939146919561</v>
       </c>
       <c r="C76">
-        <v>-0.08886387459084921</v>
+        <v>0.09403051225281656</v>
       </c>
       <c r="D76">
-        <v>-0.159849042973307</v>
+        <v>-0.1438821586175498</v>
       </c>
       <c r="E76">
-        <v>-0.1193560361338711</v>
+        <v>-0.03275471323952459</v>
       </c>
       <c r="F76">
-        <v>-0.1618813802556765</v>
+        <v>-0.09119119638351839</v>
       </c>
       <c r="G76">
-        <v>0.01302362033961673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1443774384411767</v>
+      </c>
+      <c r="H76">
+        <v>0.1192435400746951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1208432678904909</v>
+        <v>0.07379203852265102</v>
       </c>
       <c r="C77">
-        <v>-0.04782430124748251</v>
+        <v>0.01328598665832229</v>
       </c>
       <c r="D77">
-        <v>0.06570883604884842</v>
+        <v>-0.06827175910450219</v>
       </c>
       <c r="E77">
-        <v>-0.05042088433721671</v>
+        <v>0.007337317377371067</v>
       </c>
       <c r="F77">
-        <v>0.1759187284909847</v>
+        <v>0.004947542658512792</v>
       </c>
       <c r="G77">
-        <v>-0.2182062422575681</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08916680795641958</v>
+      </c>
+      <c r="H77">
+        <v>-0.007929582774145931</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07240184850805792</v>
+        <v>0.04513701951759248</v>
       </c>
       <c r="C78">
-        <v>-0.04498698229461177</v>
+        <v>0.01435076571391257</v>
       </c>
       <c r="D78">
-        <v>0.01654376363696735</v>
+        <v>-0.05860427275964335</v>
       </c>
       <c r="E78">
-        <v>-0.07280260217826036</v>
+        <v>-0.005523735813700081</v>
       </c>
       <c r="F78">
-        <v>0.1039580945190858</v>
+        <v>-0.02818092505662158</v>
       </c>
       <c r="G78">
-        <v>-0.04288298769602086</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06904157323463252</v>
+      </c>
+      <c r="H78">
+        <v>-0.07524337874662898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2488496750197605</v>
+        <v>0.143306192934944</v>
       </c>
       <c r="C80">
-        <v>0.8399025374037314</v>
+        <v>0.03534115013815334</v>
       </c>
       <c r="D80">
-        <v>-0.03635971201520263</v>
+        <v>-0.05486260205594325</v>
       </c>
       <c r="E80">
-        <v>-0.4093432909099916</v>
+        <v>-0.9472827181192083</v>
       </c>
       <c r="F80">
-        <v>0.1094174434003657</v>
+        <v>0.1850022834544845</v>
       </c>
       <c r="G80">
-        <v>0.134450341479093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1303290425300158</v>
+      </c>
+      <c r="H80">
+        <v>0.0105334888985312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1740426819833281</v>
+        <v>0.1563908043082197</v>
       </c>
       <c r="C81">
-        <v>-0.06502099304619458</v>
+        <v>0.06615867429391993</v>
       </c>
       <c r="D81">
-        <v>-0.1038506902760286</v>
+        <v>-0.09442713403263439</v>
       </c>
       <c r="E81">
-        <v>-0.06983287508102892</v>
+        <v>-0.007824717980827841</v>
       </c>
       <c r="F81">
-        <v>-0.1054769146077574</v>
+        <v>-0.06366670132914665</v>
       </c>
       <c r="G81">
-        <v>0.03950499534904801</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0993179283627018</v>
+      </c>
+      <c r="H81">
+        <v>0.07975044513944896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03459979207364422</v>
+        <v>0.03393660649903638</v>
       </c>
       <c r="C83">
-        <v>-0.03090405955381437</v>
+        <v>0.006504867795362279</v>
       </c>
       <c r="D83">
-        <v>0.02420453143211422</v>
+        <v>-0.02259628407424204</v>
       </c>
       <c r="E83">
-        <v>-0.004983511233848918</v>
+        <v>0.005824496843500817</v>
       </c>
       <c r="F83">
-        <v>0.05809003783589849</v>
+        <v>-0.01205051542020577</v>
       </c>
       <c r="G83">
-        <v>-0.0430878393879574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0523970768437716</v>
+      </c>
+      <c r="H83">
+        <v>-0.04070023807442714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2553759113649449</v>
+        <v>0.2213258650254331</v>
       </c>
       <c r="C85">
-        <v>-0.0953481255111935</v>
+        <v>0.08547827263182521</v>
       </c>
       <c r="D85">
-        <v>-0.1211032516225292</v>
+        <v>-0.1567330592330818</v>
       </c>
       <c r="E85">
-        <v>-0.09505166789517584</v>
+        <v>0.005681179164972712</v>
       </c>
       <c r="F85">
-        <v>-0.1048812590528854</v>
+        <v>-0.07951469753955258</v>
       </c>
       <c r="G85">
-        <v>-0.02513372453724095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1552925075427326</v>
+      </c>
+      <c r="H85">
+        <v>0.08122506182659459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0008051354823494387</v>
+        <v>0.02796915593152174</v>
       </c>
       <c r="C86">
-        <v>0.003532693390824812</v>
+        <v>0.003482225264920167</v>
       </c>
       <c r="D86">
-        <v>0.02389601111364559</v>
+        <v>-0.02801625482277361</v>
       </c>
       <c r="E86">
-        <v>-0.03366938400081864</v>
+        <v>0.002745492431945259</v>
       </c>
       <c r="F86">
-        <v>0.07193291619383335</v>
+        <v>-0.0008804037370290628</v>
       </c>
       <c r="G86">
-        <v>-0.04611135840792567</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08330257400325176</v>
+      </c>
+      <c r="H86">
+        <v>-0.09255468017234754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03951327047423789</v>
+        <v>0.02884261256883357</v>
       </c>
       <c r="C87">
-        <v>0.002775889069805726</v>
+        <v>0.004380024667330503</v>
       </c>
       <c r="D87">
-        <v>0.01520676445122109</v>
+        <v>-0.04282822647019426</v>
       </c>
       <c r="E87">
-        <v>-0.01090976792087835</v>
+        <v>-0.01012656093787612</v>
       </c>
       <c r="F87">
-        <v>0.1122333002885567</v>
+        <v>-0.01369043260785542</v>
       </c>
       <c r="G87">
-        <v>-0.05073334822277917</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08713084751210914</v>
+      </c>
+      <c r="H87">
+        <v>-0.07588741357094415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01219323535754461</v>
+        <v>0.03940270463842343</v>
       </c>
       <c r="C88">
-        <v>0.01451963778379141</v>
+        <v>-0.01034781481139473</v>
       </c>
       <c r="D88">
-        <v>-0.01628680759114689</v>
+        <v>-0.01693741012842761</v>
       </c>
       <c r="E88">
-        <v>-0.01428770040329064</v>
+        <v>-0.01084614124617163</v>
       </c>
       <c r="F88">
-        <v>-0.003063821219643812</v>
+        <v>-0.0159235944564223</v>
       </c>
       <c r="G88">
-        <v>-0.0502590184324565</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.006143988306161204</v>
+      </c>
+      <c r="H88">
+        <v>-0.01520466615207354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1060942647821537</v>
+        <v>0.2429274435681113</v>
       </c>
       <c r="C89">
-        <v>0.1181972404420003</v>
+        <v>-0.006124095341706231</v>
       </c>
       <c r="D89">
-        <v>-0.1014484916047933</v>
+        <v>0.3616947351657629</v>
       </c>
       <c r="E89">
-        <v>0.2683591294618135</v>
+        <v>0.02501497639062224</v>
       </c>
       <c r="F89">
-        <v>0.08712678289935225</v>
+        <v>0.02739356991471322</v>
       </c>
       <c r="G89">
-        <v>0.02221960167076609</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003020167358786996</v>
+      </c>
+      <c r="H89">
+        <v>-0.01300477210500143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08847290660471202</v>
+        <v>0.1934944918360895</v>
       </c>
       <c r="C90">
-        <v>0.1669212014768527</v>
+        <v>-0.007293101486091482</v>
       </c>
       <c r="D90">
-        <v>-0.1184690718945622</v>
+        <v>0.3211585967676132</v>
       </c>
       <c r="E90">
-        <v>0.2936121118795695</v>
+        <v>0.0180943141247684</v>
       </c>
       <c r="F90">
-        <v>0.03194673759843646</v>
+        <v>0.05614704777840221</v>
       </c>
       <c r="G90">
-        <v>-0.01004438395824177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009804033104123016</v>
+      </c>
+      <c r="H90">
+        <v>0.04701765738485675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3058378687116963</v>
+        <v>0.2356073267077006</v>
       </c>
       <c r="C91">
-        <v>-0.1209610949977618</v>
+        <v>0.09858928245854999</v>
       </c>
       <c r="D91">
-        <v>-0.1170859322757031</v>
+        <v>-0.1352777769630791</v>
       </c>
       <c r="E91">
-        <v>-0.09597372270701433</v>
+        <v>0.0125876100304567</v>
       </c>
       <c r="F91">
-        <v>-0.2183474770261371</v>
+        <v>-0.07859254658771525</v>
       </c>
       <c r="G91">
-        <v>0.04075801920460181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1721391971664434</v>
+      </c>
+      <c r="H91">
+        <v>0.1563771317530715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1704616159169362</v>
+        <v>0.2457077636682859</v>
       </c>
       <c r="C92">
-        <v>0.1257116828421658</v>
+        <v>0.05968787717296553</v>
       </c>
       <c r="D92">
-        <v>-0.2925933476620353</v>
+        <v>0.2585959634988406</v>
       </c>
       <c r="E92">
-        <v>0.3377749455668672</v>
+        <v>0.004011144485405424</v>
       </c>
       <c r="F92">
-        <v>-0.1751070893515458</v>
+        <v>-0.003321943121129171</v>
       </c>
       <c r="G92">
-        <v>-0.5214392917271914</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.001359100817709474</v>
+      </c>
+      <c r="H92">
+        <v>0.1198644009898336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09061797106711215</v>
+        <v>0.2163372246517633</v>
       </c>
       <c r="C93">
-        <v>0.1572880835759694</v>
+        <v>0.001481848842435003</v>
       </c>
       <c r="D93">
-        <v>-0.1383263197750317</v>
+        <v>0.3390828443578651</v>
       </c>
       <c r="E93">
-        <v>0.4148600562538801</v>
+        <v>0.03859437689745888</v>
       </c>
       <c r="F93">
-        <v>-0.006745581103930903</v>
+        <v>0.06093613996692671</v>
       </c>
       <c r="G93">
-        <v>0.07065816203093933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.001164450604302191</v>
+      </c>
+      <c r="H93">
+        <v>-0.01275621024228266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3010157927962109</v>
+        <v>0.274082148105698</v>
       </c>
       <c r="C94">
-        <v>-0.1525851549280542</v>
+        <v>0.09301038465695045</v>
       </c>
       <c r="D94">
-        <v>-0.2101784219229257</v>
+        <v>-0.13578362318832</v>
       </c>
       <c r="E94">
-        <v>-0.09937920178243656</v>
+        <v>0.04528486658042151</v>
       </c>
       <c r="F94">
-        <v>-0.1737912418790455</v>
+        <v>-0.156228884407962</v>
       </c>
       <c r="G94">
-        <v>0.04861616056526608</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2390692756209534</v>
+      </c>
+      <c r="H94">
+        <v>0.2892181483270791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05542113290151963</v>
+        <v>0.05957204360880981</v>
       </c>
       <c r="C95">
-        <v>-0.05255268908580276</v>
+        <v>0.03468751759059414</v>
       </c>
       <c r="D95">
-        <v>0.03336567281412275</v>
+        <v>-0.08625476170338177</v>
       </c>
       <c r="E95">
-        <v>-0.07468364023113615</v>
+        <v>0.07701394280767085</v>
       </c>
       <c r="F95">
-        <v>0.06042356086738047</v>
+        <v>-0.003037350789324936</v>
       </c>
       <c r="G95">
-        <v>-0.2063280657171969</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06099290332550249</v>
+      </c>
+      <c r="H95">
+        <v>-0.05291748982262557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1695123209961947</v>
+        <v>0.1851201663300074</v>
       </c>
       <c r="C98">
-        <v>-0.06298634347700026</v>
+        <v>0.06144350793377151</v>
       </c>
       <c r="D98">
-        <v>0.06384089402264674</v>
+        <v>-0.03667930960019947</v>
       </c>
       <c r="E98">
-        <v>0.126856252872704</v>
+        <v>0.04824579322135891</v>
       </c>
       <c r="F98">
-        <v>0.1280700553287012</v>
+        <v>-0.01803824299100019</v>
       </c>
       <c r="G98">
-        <v>0.3384466587961069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08629146667164431</v>
+      </c>
+      <c r="H98">
+        <v>-0.3423224441294151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005682831954813283</v>
+        <v>0.01631098680436683</v>
       </c>
       <c r="C101">
-        <v>-0.01371071407781746</v>
+        <v>-2.177575565783845e-06</v>
       </c>
       <c r="D101">
-        <v>-0.002319416968877812</v>
+        <v>-0.01214491701424773</v>
       </c>
       <c r="E101">
-        <v>-0.07013151315289344</v>
+        <v>-0.007574753447942301</v>
       </c>
       <c r="F101">
-        <v>0.1685388157902297</v>
+        <v>-0.02764626243369674</v>
       </c>
       <c r="G101">
-        <v>-0.1200132041561529</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1042208768661826</v>
+      </c>
+      <c r="H101">
+        <v>0.03014875544717198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1168334250565152</v>
+        <v>0.1064266063535237</v>
       </c>
       <c r="C102">
-        <v>-0.05222378346437634</v>
+        <v>0.03393877268503773</v>
       </c>
       <c r="D102">
-        <v>-0.04481803043874159</v>
+        <v>-0.07650238906559965</v>
       </c>
       <c r="E102">
-        <v>-0.07286650025635696</v>
+        <v>-0.0001866175669562326</v>
       </c>
       <c r="F102">
-        <v>-0.08154656910843457</v>
+        <v>-0.04241542983329405</v>
       </c>
       <c r="G102">
-        <v>0.006875647021245761</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08557236136864257</v>
+      </c>
+      <c r="H102">
+        <v>0.05746305876922188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03411480745885586</v>
+        <v>0.01649847417506004</v>
       </c>
       <c r="C103">
-        <v>0.0004567792170897024</v>
+        <v>0.006283440505822277</v>
       </c>
       <c r="D103">
-        <v>-0.01746168542964414</v>
+        <v>-0.0148725311671787</v>
       </c>
       <c r="E103">
-        <v>-0.03996520138147212</v>
+        <v>-0.009016990624794604</v>
       </c>
       <c r="F103">
-        <v>0.004285643695554568</v>
+        <v>-0.008026581997937344</v>
       </c>
       <c r="G103">
-        <v>-0.01034606027644517</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-9.076503228070741e-05</v>
+      </c>
+      <c r="H103">
+        <v>0.01091570213091412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2149044740502584</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9555959237910021</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1051838968538211</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02485204273280225</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1303417796504998</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03238364229637767</v>
+      </c>
+      <c r="H104">
+        <v>0.04651332677957547</v>
       </c>
     </row>
   </sheetData>
